--- a/biology/Médecine/Usama_Riaz/Usama_Riaz.xlsx
+++ b/biology/Médecine/Usama_Riaz/Usama_Riaz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Usama Riaz, né en 1994 et mort le 23 mars 2020, est un médecin pakistanais du Gilgit-Baltistan victime de la pandémie de Covid-19[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Usama Riaz, né en 1994 et mort le 23 mars 2020, est un médecin pakistanais du Gilgit-Baltistan victime de la pandémie de Covid-19. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au cours de sa carrière, il a pour rôle le suivi de la santé des pèlerins rentrés d'Iran au Pakistan, et notamment, selon le New York Times, le dépistage des pèlerins vis-à-vis du risque de Covid-19[2]. 
-À la suite de la pandémie de 2019, il a pour rôle le traitement en soins intensifs des pèlerins diagnostiqués Covid-19, et ce malgré le manque d'équipement de protection individuelle[3],[4], générant un risque considérablement accru pour les personnels de santé[5],[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de sa carrière, il a pour rôle le suivi de la santé des pèlerins rentrés d'Iran au Pakistan, et notamment, selon le New York Times, le dépistage des pèlerins vis-à-vis du risque de Covid-19. 
+À la suite de la pandémie de 2019, il a pour rôle le traitement en soins intensifs des pèlerins diagnostiqués Covid-19, et ce malgré le manque d'équipement de protection individuelle générant un risque considérablement accru pour les personnels de santé,. 
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Mort</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Usama Riaz meurt le 23 mars 2020 des complications liées à la Covid-19 à l'âge de 26 ans[5]. Il est le premier médecin pakistanais à mourir du virus[7]. 
-Le 27 mars 2020, il reçoit à titre posthume le Nishan-e-Kashmir, la plus haute distinction décernée par l'État, par le Premier ministre de l'Azad Cachemire pour ses services[1]. Hafiz Hafeezur Rehman, Premier ministre du Gilgit-Baltistan, qualifie sa mort de « tragédie nationale »[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Usama Riaz meurt le 23 mars 2020 des complications liées à la Covid-19 à l'âge de 26 ans. Il est le premier médecin pakistanais à mourir du virus. 
+Le 27 mars 2020, il reçoit à titre posthume le Nishan-e-Kashmir, la plus haute distinction décernée par l'État, par le Premier ministre de l'Azad Cachemire pour ses services. Hafiz Hafeezur Rehman, Premier ministre du Gilgit-Baltistan, qualifie sa mort de « tragédie nationale ».
 </t>
         </is>
       </c>
